--- a/HW7/ExposureTimeCalculator1.xlsx
+++ b/HW7/ExposureTimeCalculator1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maxcoplan/Documents/workspace/Techniques/HW7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{827F8BD5-8D5E-C04A-903F-1E6CEA933B92}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F77F6B-D027-C94D-B663-F98CD8A8685A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13140" yWindow="0" windowWidth="20460" windowHeight="21000" activeTab="2" xr2:uid="{7797673C-26F3-8B46-961F-BFCA7F0BA439}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="2" xr2:uid="{7797673C-26F3-8B46-961F-BFCA7F0BA439}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3660,7 +3660,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
